--- a/biology/Botanique/Biou_d'Arbois/Biou_d'Arbois.xlsx
+++ b/biology/Botanique/Biou_d'Arbois/Biou_d'Arbois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Biou_d%27Arbois</t>
+          <t>Biou_d'Arbois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La fête du Biou d'Arbois est traditionnellement célébrée à Arbois, dans le Jura, le premier dimanche de septembre, moment proche des vendanges. Les vignerons des alentours sélectionnent les premières plus belles grappes de leurs vignes et ils les assemblent pour en former une géante.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Biou_d%27Arbois</t>
+          <t>Biou_d'Arbois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premières évocations du Biou remontent au milieu du XVIIe siècle, même si l'on peut faire l'hypothèse d'une apparition antérieure.
 Jusqu'au XIXe siècle, la célébration du biou est confiée aux gardes-fruits. C'est sous la IIIe République que la Société de Viticulture (crée en 1858) se charge du déroulement des festivités aux dépens des gardes-fruits. À partir de 1922, la confection d'une couronne de raisin coïncide avec celle du biou. Elle est quant à elle déposée au monument aux morts. Aujourd'hui, le biou est organisé par la Société de Viticulture, la Fruitière Vinicole et la ville d'Arbois. Les festivités du Biou d'Arbois sont inscrites dans l'Inventaire du patrimoine culturel immatériel français.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Biou_d%27Arbois</t>
+          <t>Biou_d'Arbois</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Déroulement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le samedi matin, les vignerons d'Arbois et producteurs de l'AOC viticole Arbois cueillent les plus belles grappes de raisins blancs et noirs de leur propre exploitation pour les amener à la Maison Vercel. L'après-midi est consacré à la confection du biou: les grappes de raisin sont accrochées sur un moule de paille recouvert d'une armature métallique. La couronne de raisin est également confectionnée en parallèle.
 Le dimanche a lieu le défilé du biou. Le biou est déplacé à travers les rues par quatre porteurs jusqu'à l'église Saint-Just. Arrivé dans l'église, le biou est béni et élevé dans le chœur. Il s'ensuit une messe. À la fin de la messe, un deuxième défilé débute, consacré celui-ci à la couronne de raisin. Arrivée devant le monument aux morts, la couronne est déposée et une cérémonie commémorative débute, consacrée à la fois aux morts des deux Guerres mondiales, mais aussi à l'anniversaire de la libération d'Arbois le 4 septembre 1944. 
